--- a/Timekeeping/2024/06-24/MITCHELL A 06-24.xlsx
+++ b/Timekeeping/2024/06-24/MITCHELL A 06-24.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27830"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="S:\Timekeeping\06-24\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BC45541D-5229-4561-A45F-532022F2A64C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6D80B9C6-8F92-47B5-A8CE-F0F55B9247A7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15810" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-26550" yWindow="3000" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="303" uniqueCount="105">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="302" uniqueCount="105">
   <si>
     <t>NAME</t>
   </si>
@@ -232,9 +232,6 @@
     <t>invalid</t>
   </si>
   <si>
-    <t>Specify for each project above</t>
-  </si>
-  <si>
     <t>Flextime (Timeoff) this month</t>
   </si>
   <si>
@@ -338,6 +335,9 @@
   </si>
   <si>
     <t>responses to Aragon queries</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Total  SOOKE - 55 hours arbitraily reduced to 43 Hours </t>
   </si>
 </sst>
 </file>
@@ -385,7 +385,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="7">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -419,8 +419,20 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="24"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="30">
+  <borders count="32">
     <border>
       <left/>
       <right/>
@@ -769,11 +781,37 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="75">
+  <cellXfs count="76">
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -904,7 +942,6 @@
       <protection locked="0"/>
     </xf>
     <xf numFmtId="164" fontId="2" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="164" fontId="2" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="2" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="164" fontId="2" fillId="5" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="1" fontId="2" fillId="4" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
@@ -934,6 +971,8 @@
     <xf numFmtId="1" fontId="2" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="164" fontId="2" fillId="7" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1244,22 +1283,22 @@
   <dimension ref="A1:GH85"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="AC23" sqref="AC23"/>
+      <selection activeCell="AH13" sqref="AH13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="7.61328125" defaultRowHeight="12.45" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="7.5703125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="5.15234375" customWidth="1"/>
-    <col min="2" max="2" width="17.3828125" customWidth="1"/>
-    <col min="3" max="3" width="8.84375" style="18" customWidth="1"/>
-    <col min="4" max="34" width="3.3828125" style="1" customWidth="1"/>
-    <col min="35" max="35" width="5.84375" style="19" customWidth="1"/>
-    <col min="36" max="36" width="40.84375" style="1" customWidth="1"/>
-    <col min="37" max="190" width="7.61328125" style="20" customWidth="1"/>
-    <col min="191" max="16384" width="7.61328125" style="20"/>
+    <col min="1" max="1" width="5.140625" customWidth="1"/>
+    <col min="2" max="2" width="17.42578125" customWidth="1"/>
+    <col min="3" max="3" width="8.85546875" style="18" customWidth="1"/>
+    <col min="4" max="34" width="3.42578125" style="1" customWidth="1"/>
+    <col min="35" max="35" width="5.85546875" style="19" customWidth="1"/>
+    <col min="36" max="36" width="40.85546875" style="1" customWidth="1"/>
+    <col min="37" max="190" width="7.5703125" style="20" customWidth="1"/>
+    <col min="191" max="16384" width="7.5703125" style="20"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:190" s="31" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:190" s="31" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="32"/>
       <c r="B1" s="32"/>
       <c r="C1" s="32"/>
@@ -1334,7 +1373,7 @@
       <c r="BP1" s="29"/>
       <c r="BQ1" s="29"/>
     </row>
-    <row r="2" spans="1:190" s="31" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:190" s="31" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="32"/>
       <c r="B2" s="32"/>
       <c r="C2" s="32"/>
@@ -1409,7 +1448,7 @@
       <c r="BP2" s="29"/>
       <c r="BQ2" s="29"/>
     </row>
-    <row r="3" spans="1:190" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:190" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="5"/>
       <c r="B3" s="5"/>
       <c r="C3" s="3"/>
@@ -1426,10 +1465,10 @@
         <v>0</v>
       </c>
       <c r="N3" s="4"/>
-      <c r="O3" s="73" t="s">
-        <v>76</v>
-      </c>
-      <c r="P3" s="73"/>
+      <c r="O3" s="72" t="s">
+        <v>75</v>
+      </c>
+      <c r="P3" s="72"/>
       <c r="Q3" s="47"/>
       <c r="R3" s="47"/>
       <c r="S3" s="48"/>
@@ -1451,8 +1490,8 @@
       <c r="AG3" s="5"/>
       <c r="AH3" s="5"/>
       <c r="AI3" s="31"/>
-      <c r="AJ3" s="71" t="s">
-        <v>103</v>
+      <c r="AJ3" s="70" t="s">
+        <v>102</v>
       </c>
       <c r="AK3" s="29"/>
       <c r="AL3" s="29"/>
@@ -1492,7 +1531,7 @@
       <c r="BP3" s="29"/>
       <c r="BQ3" s="29"/>
     </row>
-    <row r="4" spans="1:190" s="31" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:190" s="31" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="32"/>
       <c r="B4" s="32"/>
       <c r="C4" s="32"/>
@@ -1567,7 +1606,7 @@
       <c r="BP4" s="29"/>
       <c r="BQ4" s="29"/>
     </row>
-    <row r="5" spans="1:190" s="24" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:190" s="24" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="36" t="s">
         <v>2</v>
       </c>
@@ -1765,14 +1804,14 @@
       <c r="GG5" s="20"/>
       <c r="GH5" s="20"/>
     </row>
-    <row r="6" spans="1:190" s="22" customFormat="1" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:190" s="22" customFormat="1" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A6" s="6" t="s">
         <v>3</v>
       </c>
       <c r="B6" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="C6" s="69" t="s">
+      <c r="C6" s="68" t="s">
         <v>21</v>
       </c>
       <c r="D6" s="8">
@@ -2031,7 +2070,7 @@
       <c r="GG6" s="20"/>
       <c r="GH6" s="20"/>
     </row>
-    <row r="7" spans="1:190" ht="10.75" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:190" ht="12" thickTop="1" x14ac:dyDescent="0.2">
       <c r="A7" s="38"/>
       <c r="B7" s="39"/>
       <c r="C7" s="40" t="s">
@@ -2168,7 +2207,7 @@
       <c r="BP7" s="29"/>
       <c r="BQ7" s="29"/>
     </row>
-    <row r="8" spans="1:190" s="23" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:190" s="23" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="50"/>
       <c r="B8" s="54"/>
       <c r="C8" s="44"/>
@@ -2266,15 +2305,15 @@
       <c r="BP8" s="29"/>
       <c r="BQ8" s="29"/>
     </row>
-    <row r="9" spans="1:190" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:190" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="51" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B9" s="39" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C9" s="40" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="D9" s="56" t="s">
         <v>20</v>
@@ -2350,7 +2389,7 @@
         <v>10</v>
       </c>
       <c r="AJ9" s="42" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AK9" s="29"/>
       <c r="AL9" s="29"/>
@@ -2390,15 +2429,15 @@
       <c r="BP9" s="29"/>
       <c r="BQ9" s="29"/>
     </row>
-    <row r="10" spans="1:190" s="23" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:190" s="23" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="50" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B10" s="43" t="s">
-        <v>77</v>
-      </c>
-      <c r="C10" s="72" t="s">
-        <v>100</v>
+        <v>76</v>
+      </c>
+      <c r="C10" s="71" t="s">
+        <v>99</v>
       </c>
       <c r="D10" s="56" t="s">
         <v>20</v>
@@ -2490,7 +2529,7 @@
         <v>18</v>
       </c>
       <c r="AJ10" s="45" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="AK10" s="29"/>
       <c r="AL10" s="29"/>
@@ -2530,15 +2569,15 @@
       <c r="BP10" s="29"/>
       <c r="BQ10" s="29"/>
     </row>
-    <row r="11" spans="1:190" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:190" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="51" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B11" s="39" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C11" s="40" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D11" s="56" t="s">
         <v>20</v>
@@ -2612,7 +2651,7 @@
         <v>10</v>
       </c>
       <c r="AJ11" s="42" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="AK11" s="29"/>
       <c r="AL11" s="29"/>
@@ -2652,15 +2691,15 @@
       <c r="BP11" s="29"/>
       <c r="BQ11" s="29"/>
     </row>
-    <row r="12" spans="1:190" s="23" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:190" s="23" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="50" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B12" s="43" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C12" s="44" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="D12" s="56" t="s">
         <v>20</v>
@@ -2718,7 +2757,7 @@
         <v>0</v>
       </c>
       <c r="AJ12" s="45" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="AK12" s="29"/>
       <c r="AL12" s="29"/>
@@ -2758,15 +2797,15 @@
       <c r="BP12" s="29"/>
       <c r="BQ12" s="29"/>
     </row>
-    <row r="13" spans="1:190" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:190" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="51" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B13" s="39" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C13" s="40" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="D13" s="56" t="s">
         <v>20</v>
@@ -2824,7 +2863,7 @@
         <v>0</v>
       </c>
       <c r="AJ13" s="42" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="AK13" s="29"/>
       <c r="AL13" s="29"/>
@@ -2864,15 +2903,15 @@
       <c r="BP13" s="29"/>
       <c r="BQ13" s="29"/>
     </row>
-    <row r="14" spans="1:190" s="23" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:190" s="23" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="50" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B14" s="43" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C14" s="44" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="D14" s="56" t="s">
         <v>20</v>
@@ -2936,7 +2975,7 @@
         <v>4</v>
       </c>
       <c r="AJ14" s="45" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="AK14" s="29"/>
       <c r="AL14" s="29"/>
@@ -2976,15 +3015,15 @@
       <c r="BP14" s="29"/>
       <c r="BQ14" s="29"/>
     </row>
-    <row r="15" spans="1:190" s="21" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:190" s="21" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="51" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B15" s="39" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C15" s="40" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="D15" s="56"/>
       <c r="E15" s="56" t="s">
@@ -3034,7 +3073,7 @@
         <v>1</v>
       </c>
       <c r="AJ15" s="42" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="AK15" s="29"/>
       <c r="AL15" s="29"/>
@@ -3195,15 +3234,15 @@
       <c r="GG15" s="20"/>
       <c r="GH15" s="20"/>
     </row>
-    <row r="16" spans="1:190" s="23" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:190" s="23" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="50" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B16" s="43" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C16" s="44" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="D16" s="56" t="s">
         <v>20</v>
@@ -3263,7 +3302,7 @@
         <v>12</v>
       </c>
       <c r="AJ16" s="45" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="AK16" s="29"/>
       <c r="AL16" s="29"/>
@@ -3303,15 +3342,15 @@
       <c r="BP16" s="29"/>
       <c r="BQ16" s="29"/>
     </row>
-    <row r="17" spans="1:190" s="25" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:190" s="25" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="51" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B17" s="39" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C17" s="40" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="D17" s="56" t="s">
         <v>20</v>
@@ -3369,7 +3408,7 @@
         <v>0</v>
       </c>
       <c r="AJ17" s="42" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="AK17" s="29"/>
       <c r="AL17" s="29"/>
@@ -3530,15 +3569,15 @@
       <c r="GG17" s="23"/>
       <c r="GH17" s="23"/>
     </row>
-    <row r="18" spans="1:190" s="25" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:190" s="25" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="50" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B18" s="43" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C18" s="44" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="D18" s="56" t="s">
         <v>20</v>
@@ -3596,7 +3635,7 @@
         <v>0</v>
       </c>
       <c r="AJ18" s="45" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="AK18" s="29"/>
       <c r="AL18" s="29"/>
@@ -3753,15 +3792,15 @@
       <c r="GG18" s="23"/>
       <c r="GH18" s="23"/>
     </row>
-    <row r="19" spans="1:190" s="25" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:190" s="25" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="51" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B19" s="39" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C19" s="40" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="D19" s="56" t="s">
         <v>20</v>
@@ -3821,7 +3860,7 @@
         <v>3</v>
       </c>
       <c r="AJ19" s="42" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="AK19" s="29"/>
       <c r="AL19" s="29"/>
@@ -3978,15 +4017,15 @@
       <c r="GG19" s="23"/>
       <c r="GH19" s="23"/>
     </row>
-    <row r="20" spans="1:190" s="25" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:190" s="25" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="50" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B20" s="43" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C20" s="44" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="D20" s="56" t="s">
         <v>20</v>
@@ -4054,7 +4093,7 @@
         <v>6</v>
       </c>
       <c r="AJ20" s="45" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AK20" s="29"/>
       <c r="AL20" s="29"/>
@@ -4211,7 +4250,7 @@
       <c r="GG20" s="23"/>
       <c r="GH20" s="23"/>
     </row>
-    <row r="21" spans="1:190" s="21" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:190" s="21" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="51"/>
       <c r="B21" s="39"/>
       <c r="C21" s="40"/>
@@ -4426,7 +4465,7 @@
       <c r="GG21" s="20"/>
       <c r="GH21" s="20"/>
     </row>
-    <row r="22" spans="1:190" s="21" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:190" s="21" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A22" s="10"/>
       <c r="B22" s="55" t="s">
         <v>6</v>
@@ -4718,7 +4757,7 @@
       <c r="GG22" s="20"/>
       <c r="GH22" s="20"/>
     </row>
-    <row r="23" spans="1:190" s="25" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:190" s="25" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A23" s="11" t="s">
         <v>7</v>
       </c>
@@ -4915,7 +4954,7 @@
       <c r="GG23" s="23"/>
       <c r="GH23" s="23"/>
     </row>
-    <row r="24" spans="1:190" s="25" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:190" s="25" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A24" s="11" t="s">
         <v>14</v>
       </c>
@@ -5112,7 +5151,7 @@
       <c r="GG24" s="23"/>
       <c r="GH24" s="23"/>
     </row>
-    <row r="25" spans="1:190" s="21" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:190" s="21" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A25" s="11" t="s">
         <v>8</v>
       </c>
@@ -5128,7 +5167,7 @@
       <c r="K25" s="61"/>
       <c r="L25" s="61"/>
       <c r="M25" s="61" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="N25" s="61"/>
       <c r="O25" s="61"/>
@@ -5311,7 +5350,7 @@
       <c r="GG25" s="20"/>
       <c r="GH25" s="20"/>
     </row>
-    <row r="26" spans="1:190" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:190" x14ac:dyDescent="0.2">
       <c r="A26" s="11" t="s">
         <v>22</v>
       </c>
@@ -5387,9 +5426,9 @@
       <c r="BP26" s="29"/>
       <c r="BQ26" s="29"/>
     </row>
-    <row r="27" spans="1:190" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:190" x14ac:dyDescent="0.2">
       <c r="A27" s="10" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B27" s="13"/>
       <c r="C27" s="13"/>
@@ -5426,7 +5465,7 @@
       <c r="AH27" s="61"/>
       <c r="AI27" s="57"/>
       <c r="AJ27" s="49" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="AK27" s="29"/>
       <c r="AL27" s="29"/>
@@ -5462,7 +5501,7 @@
       <c r="BP27" s="29"/>
       <c r="BQ27" s="29"/>
     </row>
-    <row r="28" spans="1:190" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:190" x14ac:dyDescent="0.2">
       <c r="A28" s="10" t="s">
         <v>12</v>
       </c>
@@ -5538,7 +5577,7 @@
       <c r="BP28" s="29"/>
       <c r="BQ28" s="29"/>
     </row>
-    <row r="29" spans="1:190" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:190" x14ac:dyDescent="0.2">
       <c r="A29" s="10" t="s">
         <v>13</v>
       </c>
@@ -5614,7 +5653,7 @@
       <c r="BP29" s="29"/>
       <c r="BQ29" s="29"/>
     </row>
-    <row r="30" spans="1:190" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:190" x14ac:dyDescent="0.2">
       <c r="A30" s="10" t="s">
         <v>29</v>
       </c>
@@ -5690,7 +5729,7 @@
       <c r="BP30" s="29"/>
       <c r="BQ30" s="29"/>
     </row>
-    <row r="31" spans="1:190" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:190" x14ac:dyDescent="0.2">
       <c r="A31" s="10" t="s">
         <v>29</v>
       </c>
@@ -5766,7 +5805,7 @@
       <c r="BP31" s="29"/>
       <c r="BQ31" s="29"/>
     </row>
-    <row r="32" spans="1:190" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:190" x14ac:dyDescent="0.2">
       <c r="A32" s="10" t="s">
         <v>9</v>
       </c>
@@ -5935,7 +5974,7 @@
       <c r="BP32" s="29"/>
       <c r="BQ32" s="29"/>
     </row>
-    <row r="33" spans="1:52" s="29" customFormat="1" ht="12.9" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:52" s="29" customFormat="1" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A33" s="14" t="s">
         <v>10</v>
       </c>
@@ -5976,18 +6015,18 @@
       <c r="AJ33" s="30"/>
       <c r="AZ33" s="52"/>
     </row>
-    <row r="34" spans="1:52" s="29" customFormat="1" ht="10.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:52" s="29" customFormat="1" ht="12" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A34" s="17" t="s">
+        <v>89</v>
+      </c>
+      <c r="B34" s="16" t="s">
         <v>90</v>
-      </c>
-      <c r="B34" s="16" t="s">
-        <v>91</v>
       </c>
       <c r="C34" s="16"/>
       <c r="D34" s="62"/>
       <c r="E34" s="62"/>
       <c r="F34" s="62" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G34" s="62"/>
       <c r="H34" s="62" t="s">
@@ -6013,22 +6052,22 @@
       <c r="AA34" s="62"/>
       <c r="AB34" s="62"/>
       <c r="AC34" s="62"/>
-      <c r="AD34" s="67" t="s">
+      <c r="AD34" s="66" t="s">
         <v>11</v>
       </c>
-      <c r="AE34" s="66" t="s">
-        <v>73</v>
-      </c>
-      <c r="AF34" s="74"/>
-      <c r="AG34" s="74"/>
-      <c r="AH34" s="74"/>
-      <c r="AI34" s="63" t="s">
-        <v>73</v>
-      </c>
-      <c r="AJ34" s="30"/>
+      <c r="AE34" s="65" t="s">
+        <v>72</v>
+      </c>
+      <c r="AF34" s="73"/>
+      <c r="AG34" s="73"/>
+      <c r="AH34" s="73"/>
+      <c r="AI34" s="74" t="s">
+        <v>104</v>
+      </c>
+      <c r="AJ34" s="75"/>
       <c r="AZ34" s="52"/>
     </row>
-    <row r="35" spans="1:52" s="29" customFormat="1" ht="10.3" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:52" s="29" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
       <c r="A35" s="17" t="s">
         <v>24</v>
       </c>
@@ -6043,7 +6082,7 @@
       </c>
       <c r="G35" s="62"/>
       <c r="H35" s="62" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="I35" s="62"/>
       <c r="J35" s="62"/>
@@ -6074,12 +6113,12 @@
       <c r="AJ35" s="30"/>
       <c r="AZ35" s="52"/>
     </row>
-    <row r="36" spans="1:52" s="29" customFormat="1" ht="10.3" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:52" s="29" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
       <c r="A36" s="17" t="s">
+        <v>93</v>
+      </c>
+      <c r="B36" s="16" t="s">
         <v>94</v>
-      </c>
-      <c r="B36" s="16" t="s">
-        <v>95</v>
       </c>
       <c r="C36" s="16"/>
       <c r="D36" s="62"/>
@@ -6089,7 +6128,7 @@
       </c>
       <c r="G36" s="62"/>
       <c r="H36" s="62" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="I36" s="62"/>
       <c r="J36" s="62"/>
@@ -6111,39 +6150,37 @@
       <c r="AA36" s="62"/>
       <c r="AB36" s="62"/>
       <c r="AC36" s="62"/>
-      <c r="AD36" s="67" t="s">
-        <v>70</v>
+      <c r="AD36" s="66" t="s">
+        <v>69</v>
       </c>
       <c r="AE36" s="62"/>
       <c r="AF36" s="62"/>
       <c r="AG36" s="62"/>
       <c r="AH36" s="62"/>
       <c r="AI36" s="62" t="s">
-        <v>73</v>
-      </c>
-      <c r="AJ36" s="70" t="s">
-        <v>69</v>
-      </c>
+        <v>72</v>
+      </c>
+      <c r="AJ36" s="69"/>
       <c r="AZ36" s="52"/>
     </row>
-    <row r="37" spans="1:52" s="29" customFormat="1" ht="10.3" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:52" s="29" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
       <c r="A37" s="16" t="s">
         <v>23</v>
       </c>
       <c r="B37" s="16" t="s">
+        <v>96</v>
+      </c>
+      <c r="C37" s="30"/>
+      <c r="D37" s="63"/>
+      <c r="E37" s="63"/>
+      <c r="F37" s="63" t="s">
+        <v>32</v>
+      </c>
+      <c r="G37" s="63"/>
+      <c r="H37" s="63" t="s">
         <v>97</v>
       </c>
-      <c r="C37" s="30"/>
-      <c r="D37" s="64"/>
-      <c r="E37" s="64"/>
-      <c r="F37" s="64" t="s">
-        <v>32</v>
-      </c>
-      <c r="G37" s="64"/>
-      <c r="H37" s="64" t="s">
-        <v>98</v>
-      </c>
-      <c r="I37" s="64"/>
+      <c r="I37" s="63"/>
       <c r="J37" s="62"/>
       <c r="K37" s="62"/>
       <c r="L37" s="62"/>
@@ -6171,134 +6208,134 @@
       <c r="AI37" s="62"/>
       <c r="AJ37" s="30"/>
     </row>
-    <row r="38" spans="1:52" s="29" customFormat="1" ht="10.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:52" s="29" customFormat="1" ht="12" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A38" s="30" t="s">
         <v>27</v>
       </c>
       <c r="B38" s="30" t="s">
+        <v>98</v>
+      </c>
+      <c r="C38" s="30"/>
+      <c r="D38" s="63"/>
+      <c r="E38" s="63"/>
+      <c r="F38" s="63" t="s">
         <v>99</v>
       </c>
-      <c r="C38" s="30"/>
-      <c r="D38" s="64"/>
-      <c r="E38" s="64"/>
-      <c r="F38" s="64" t="s">
-        <v>100</v>
-      </c>
-      <c r="G38" s="64"/>
-      <c r="H38" s="64" t="s">
+      <c r="G38" s="63"/>
+      <c r="H38" s="63" t="s">
         <v>28</v>
       </c>
-      <c r="I38" s="64"/>
-      <c r="J38" s="64"/>
-      <c r="K38" s="64"/>
-      <c r="L38" s="64"/>
-      <c r="M38" s="64"/>
-      <c r="N38" s="64"/>
-      <c r="O38" s="64"/>
-      <c r="P38" s="64"/>
-      <c r="Q38" s="64"/>
-      <c r="R38" s="64"/>
-      <c r="S38" s="64"/>
-      <c r="T38" s="64"/>
-      <c r="U38" s="64"/>
-      <c r="W38" s="64"/>
-      <c r="X38" s="64"/>
-      <c r="Y38" s="64"/>
-      <c r="Z38" s="64"/>
-      <c r="AA38" s="64"/>
-      <c r="AB38" s="64"/>
-      <c r="AC38" s="64"/>
-      <c r="AD38" s="68" t="s">
-        <v>71</v>
-      </c>
-      <c r="AE38" s="64"/>
-      <c r="AF38" s="64"/>
-      <c r="AG38" s="64"/>
-      <c r="AH38" s="64"/>
-      <c r="AI38" s="65" t="s">
-        <v>73</v>
+      <c r="I38" s="63"/>
+      <c r="J38" s="63"/>
+      <c r="K38" s="63"/>
+      <c r="L38" s="63"/>
+      <c r="M38" s="63"/>
+      <c r="N38" s="63"/>
+      <c r="O38" s="63"/>
+      <c r="P38" s="63"/>
+      <c r="Q38" s="63"/>
+      <c r="R38" s="63"/>
+      <c r="S38" s="63"/>
+      <c r="T38" s="63"/>
+      <c r="U38" s="63"/>
+      <c r="W38" s="63"/>
+      <c r="X38" s="63"/>
+      <c r="Y38" s="63"/>
+      <c r="Z38" s="63"/>
+      <c r="AA38" s="63"/>
+      <c r="AB38" s="63"/>
+      <c r="AC38" s="63"/>
+      <c r="AD38" s="67" t="s">
+        <v>70</v>
+      </c>
+      <c r="AE38" s="63"/>
+      <c r="AF38" s="63"/>
+      <c r="AG38" s="63"/>
+      <c r="AH38" s="63"/>
+      <c r="AI38" s="64" t="s">
+        <v>72</v>
       </c>
       <c r="AJ38" s="30"/>
     </row>
-    <row r="39" spans="1:52" s="29" customFormat="1" ht="10.75" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:52" s="29" customFormat="1" ht="12" thickTop="1" x14ac:dyDescent="0.2">
       <c r="A39" s="30"/>
       <c r="B39" s="30"/>
       <c r="C39" s="30"/>
-      <c r="D39" s="64"/>
-      <c r="E39" s="64"/>
-      <c r="F39" s="64"/>
-      <c r="G39" s="64"/>
-      <c r="H39" s="64"/>
-      <c r="I39" s="64"/>
-      <c r="J39" s="64"/>
-      <c r="K39" s="64"/>
-      <c r="L39" s="64"/>
-      <c r="M39" s="64"/>
-      <c r="N39" s="64"/>
-      <c r="O39" s="64"/>
-      <c r="P39" s="64"/>
-      <c r="Q39" s="64"/>
-      <c r="R39" s="64"/>
-      <c r="S39" s="64"/>
-      <c r="T39" s="64"/>
-      <c r="U39" s="64"/>
-      <c r="W39" s="64"/>
-      <c r="X39" s="64"/>
-      <c r="Y39" s="64"/>
-      <c r="Z39" s="64"/>
-      <c r="AA39" s="64"/>
-      <c r="AB39" s="64"/>
-      <c r="AC39" s="64"/>
-      <c r="AD39" s="64"/>
-      <c r="AE39" s="64"/>
-      <c r="AF39" s="64"/>
-      <c r="AG39" s="64"/>
-      <c r="AH39" s="64"/>
-      <c r="AI39" s="64"/>
+      <c r="D39" s="63"/>
+      <c r="E39" s="63"/>
+      <c r="F39" s="63"/>
+      <c r="G39" s="63"/>
+      <c r="H39" s="63"/>
+      <c r="I39" s="63"/>
+      <c r="J39" s="63"/>
+      <c r="K39" s="63"/>
+      <c r="L39" s="63"/>
+      <c r="M39" s="63"/>
+      <c r="N39" s="63"/>
+      <c r="O39" s="63"/>
+      <c r="P39" s="63"/>
+      <c r="Q39" s="63"/>
+      <c r="R39" s="63"/>
+      <c r="S39" s="63"/>
+      <c r="T39" s="63"/>
+      <c r="U39" s="63"/>
+      <c r="W39" s="63"/>
+      <c r="X39" s="63"/>
+      <c r="Y39" s="63"/>
+      <c r="Z39" s="63"/>
+      <c r="AA39" s="63"/>
+      <c r="AB39" s="63"/>
+      <c r="AC39" s="63"/>
+      <c r="AD39" s="63"/>
+      <c r="AE39" s="63"/>
+      <c r="AF39" s="63"/>
+      <c r="AG39" s="63"/>
+      <c r="AH39" s="63"/>
+      <c r="AI39" s="63"/>
       <c r="AJ39" s="30"/>
     </row>
-    <row r="40" spans="1:52" s="29" customFormat="1" ht="12.9" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:52" s="29" customFormat="1" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A40" s="28"/>
       <c r="B40" s="28"/>
       <c r="C40" s="28"/>
-      <c r="D40" s="64"/>
-      <c r="E40" s="64"/>
-      <c r="F40" s="64"/>
-      <c r="G40" s="64"/>
-      <c r="H40" s="64"/>
-      <c r="I40" s="64"/>
-      <c r="J40" s="64"/>
-      <c r="K40" s="64"/>
-      <c r="L40" s="64"/>
-      <c r="M40" s="64"/>
-      <c r="N40" s="64"/>
-      <c r="O40" s="64"/>
-      <c r="P40" s="64"/>
-      <c r="Q40" s="64"/>
-      <c r="R40" s="64"/>
-      <c r="S40" s="64"/>
-      <c r="T40" s="64"/>
-      <c r="U40" s="64"/>
-      <c r="W40" s="64"/>
-      <c r="X40" s="64"/>
-      <c r="Y40" s="64"/>
-      <c r="Z40" s="64"/>
-      <c r="AA40" s="64"/>
-      <c r="AB40" s="64"/>
-      <c r="AC40" s="64"/>
-      <c r="AD40" s="68" t="s">
+      <c r="D40" s="63"/>
+      <c r="E40" s="63"/>
+      <c r="F40" s="63"/>
+      <c r="G40" s="63"/>
+      <c r="H40" s="63"/>
+      <c r="I40" s="63"/>
+      <c r="J40" s="63"/>
+      <c r="K40" s="63"/>
+      <c r="L40" s="63"/>
+      <c r="M40" s="63"/>
+      <c r="N40" s="63"/>
+      <c r="O40" s="63"/>
+      <c r="P40" s="63"/>
+      <c r="Q40" s="63"/>
+      <c r="R40" s="63"/>
+      <c r="S40" s="63"/>
+      <c r="T40" s="63"/>
+      <c r="U40" s="63"/>
+      <c r="W40" s="63"/>
+      <c r="X40" s="63"/>
+      <c r="Y40" s="63"/>
+      <c r="Z40" s="63"/>
+      <c r="AA40" s="63"/>
+      <c r="AB40" s="63"/>
+      <c r="AC40" s="63"/>
+      <c r="AD40" s="67" t="s">
+        <v>71</v>
+      </c>
+      <c r="AE40" s="63"/>
+      <c r="AF40" s="63"/>
+      <c r="AG40" s="63"/>
+      <c r="AH40" s="63"/>
+      <c r="AI40" s="64" t="s">
         <v>72</v>
       </c>
-      <c r="AE40" s="64"/>
-      <c r="AF40" s="64"/>
-      <c r="AG40" s="64"/>
-      <c r="AH40" s="64"/>
-      <c r="AI40" s="65" t="s">
-        <v>73</v>
-      </c>
       <c r="AJ40" s="30"/>
     </row>
-    <row r="41" spans="1:52" s="29" customFormat="1" ht="12.9" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:52" s="29" customFormat="1" ht="13.5" thickTop="1" x14ac:dyDescent="0.2">
       <c r="A41" s="28"/>
       <c r="B41" s="28"/>
       <c r="C41" s="28"/>
@@ -6336,7 +6373,7 @@
       <c r="AI41" s="30"/>
       <c r="AJ41" s="30"/>
     </row>
-    <row r="42" spans="1:52" s="29" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:52" s="29" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A42" s="28"/>
       <c r="B42" s="28"/>
       <c r="C42" s="28"/>
@@ -6374,7 +6411,7 @@
       <c r="AI42" s="30"/>
       <c r="AJ42" s="30"/>
     </row>
-    <row r="43" spans="1:52" s="29" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:52" s="29" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A43" s="28"/>
       <c r="B43" s="28"/>
       <c r="C43" s="28"/>
@@ -6412,7 +6449,7 @@
       <c r="AI43" s="30"/>
       <c r="AJ43" s="30"/>
     </row>
-    <row r="44" spans="1:52" s="29" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:52" s="29" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A44" s="28"/>
       <c r="B44" s="28"/>
       <c r="C44" s="28"/>
@@ -6450,167 +6487,167 @@
       <c r="AI44" s="30"/>
       <c r="AJ44" s="30"/>
     </row>
-    <row r="45" spans="1:52" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:52" x14ac:dyDescent="0.2">
       <c r="C45"/>
       <c r="AI45" s="1"/>
     </row>
-    <row r="46" spans="1:52" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:52" x14ac:dyDescent="0.2">
       <c r="C46"/>
       <c r="AI46" s="1"/>
     </row>
-    <row r="47" spans="1:52" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:52" x14ac:dyDescent="0.2">
       <c r="C47"/>
       <c r="AI47" s="1"/>
     </row>
-    <row r="48" spans="1:52" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:52" x14ac:dyDescent="0.2">
       <c r="C48"/>
       <c r="AI48" s="1"/>
     </row>
-    <row r="49" spans="3:35" x14ac:dyDescent="0.3">
+    <row r="49" spans="3:35" x14ac:dyDescent="0.2">
       <c r="C49"/>
       <c r="AI49" s="1"/>
     </row>
-    <row r="50" spans="3:35" x14ac:dyDescent="0.3">
+    <row r="50" spans="3:35" x14ac:dyDescent="0.2">
       <c r="C50"/>
       <c r="AI50" s="1"/>
     </row>
-    <row r="51" spans="3:35" x14ac:dyDescent="0.3">
+    <row r="51" spans="3:35" x14ac:dyDescent="0.2">
       <c r="C51"/>
       <c r="AI51" s="1"/>
     </row>
-    <row r="52" spans="3:35" x14ac:dyDescent="0.3">
+    <row r="52" spans="3:35" x14ac:dyDescent="0.2">
       <c r="C52"/>
       <c r="AI52" s="1"/>
     </row>
-    <row r="53" spans="3:35" x14ac:dyDescent="0.3">
+    <row r="53" spans="3:35" x14ac:dyDescent="0.2">
       <c r="C53"/>
       <c r="AI53" s="1"/>
     </row>
-    <row r="54" spans="3:35" x14ac:dyDescent="0.3">
+    <row r="54" spans="3:35" x14ac:dyDescent="0.2">
       <c r="C54"/>
       <c r="AI54" s="1"/>
     </row>
-    <row r="55" spans="3:35" x14ac:dyDescent="0.3">
+    <row r="55" spans="3:35" x14ac:dyDescent="0.2">
       <c r="C55"/>
       <c r="AI55" s="1"/>
     </row>
-    <row r="56" spans="3:35" x14ac:dyDescent="0.3">
+    <row r="56" spans="3:35" x14ac:dyDescent="0.2">
       <c r="C56"/>
       <c r="AI56" s="1"/>
     </row>
-    <row r="57" spans="3:35" x14ac:dyDescent="0.3">
+    <row r="57" spans="3:35" x14ac:dyDescent="0.2">
       <c r="C57"/>
       <c r="AI57" s="1"/>
     </row>
-    <row r="58" spans="3:35" x14ac:dyDescent="0.3">
+    <row r="58" spans="3:35" x14ac:dyDescent="0.2">
       <c r="C58"/>
       <c r="AI58" s="1"/>
     </row>
-    <row r="59" spans="3:35" x14ac:dyDescent="0.3">
+    <row r="59" spans="3:35" x14ac:dyDescent="0.2">
       <c r="C59"/>
       <c r="AI59" s="1"/>
     </row>
-    <row r="60" spans="3:35" x14ac:dyDescent="0.3">
+    <row r="60" spans="3:35" x14ac:dyDescent="0.2">
       <c r="C60"/>
       <c r="AI60" s="1"/>
     </row>
-    <row r="61" spans="3:35" x14ac:dyDescent="0.3">
+    <row r="61" spans="3:35" x14ac:dyDescent="0.2">
       <c r="C61"/>
       <c r="AI61" s="1"/>
     </row>
-    <row r="62" spans="3:35" x14ac:dyDescent="0.3">
+    <row r="62" spans="3:35" x14ac:dyDescent="0.2">
       <c r="C62"/>
       <c r="AI62" s="1"/>
     </row>
-    <row r="63" spans="3:35" x14ac:dyDescent="0.3">
+    <row r="63" spans="3:35" x14ac:dyDescent="0.2">
       <c r="C63"/>
       <c r="AI63" s="1"/>
     </row>
-    <row r="64" spans="3:35" x14ac:dyDescent="0.3">
+    <row r="64" spans="3:35" x14ac:dyDescent="0.2">
       <c r="C64"/>
       <c r="AI64" s="1"/>
     </row>
-    <row r="65" spans="3:35" x14ac:dyDescent="0.3">
+    <row r="65" spans="3:35" x14ac:dyDescent="0.2">
       <c r="C65"/>
       <c r="AI65" s="1"/>
     </row>
-    <row r="66" spans="3:35" x14ac:dyDescent="0.3">
+    <row r="66" spans="3:35" x14ac:dyDescent="0.2">
       <c r="C66"/>
       <c r="AI66" s="1"/>
     </row>
-    <row r="67" spans="3:35" x14ac:dyDescent="0.3">
+    <row r="67" spans="3:35" x14ac:dyDescent="0.2">
       <c r="C67"/>
       <c r="AI67" s="1"/>
     </row>
-    <row r="68" spans="3:35" x14ac:dyDescent="0.3">
+    <row r="68" spans="3:35" x14ac:dyDescent="0.2">
       <c r="C68"/>
       <c r="AI68" s="1"/>
     </row>
-    <row r="69" spans="3:35" x14ac:dyDescent="0.3">
+    <row r="69" spans="3:35" x14ac:dyDescent="0.2">
       <c r="C69"/>
       <c r="AI69" s="1"/>
     </row>
-    <row r="70" spans="3:35" x14ac:dyDescent="0.3">
+    <row r="70" spans="3:35" x14ac:dyDescent="0.2">
       <c r="C70"/>
       <c r="AI70" s="1"/>
     </row>
-    <row r="71" spans="3:35" x14ac:dyDescent="0.3">
+    <row r="71" spans="3:35" x14ac:dyDescent="0.2">
       <c r="C71"/>
       <c r="AI71" s="1"/>
     </row>
-    <row r="72" spans="3:35" x14ac:dyDescent="0.3">
+    <row r="72" spans="3:35" x14ac:dyDescent="0.2">
       <c r="C72"/>
       <c r="AI72" s="1"/>
     </row>
-    <row r="73" spans="3:35" x14ac:dyDescent="0.3">
+    <row r="73" spans="3:35" x14ac:dyDescent="0.2">
       <c r="C73"/>
       <c r="AI73" s="1"/>
     </row>
-    <row r="74" spans="3:35" x14ac:dyDescent="0.3">
+    <row r="74" spans="3:35" x14ac:dyDescent="0.2">
       <c r="C74"/>
       <c r="AI74" s="1"/>
     </row>
-    <row r="75" spans="3:35" x14ac:dyDescent="0.3">
+    <row r="75" spans="3:35" x14ac:dyDescent="0.2">
       <c r="C75"/>
       <c r="AI75" s="1"/>
     </row>
-    <row r="76" spans="3:35" x14ac:dyDescent="0.3">
+    <row r="76" spans="3:35" x14ac:dyDescent="0.2">
       <c r="C76"/>
       <c r="AI76" s="1"/>
     </row>
-    <row r="77" spans="3:35" x14ac:dyDescent="0.3">
+    <row r="77" spans="3:35" x14ac:dyDescent="0.2">
       <c r="C77"/>
       <c r="AI77" s="1"/>
     </row>
-    <row r="78" spans="3:35" x14ac:dyDescent="0.3">
+    <row r="78" spans="3:35" x14ac:dyDescent="0.2">
       <c r="C78"/>
       <c r="AI78" s="1"/>
     </row>
-    <row r="79" spans="3:35" x14ac:dyDescent="0.3">
+    <row r="79" spans="3:35" x14ac:dyDescent="0.2">
       <c r="C79"/>
       <c r="AI79" s="1"/>
     </row>
-    <row r="80" spans="3:35" x14ac:dyDescent="0.3">
+    <row r="80" spans="3:35" x14ac:dyDescent="0.2">
       <c r="C80"/>
       <c r="AI80" s="1"/>
     </row>
-    <row r="81" spans="3:35" x14ac:dyDescent="0.3">
+    <row r="81" spans="3:35" x14ac:dyDescent="0.2">
       <c r="C81"/>
       <c r="AI81" s="1"/>
     </row>
-    <row r="82" spans="3:35" x14ac:dyDescent="0.3">
+    <row r="82" spans="3:35" x14ac:dyDescent="0.2">
       <c r="C82"/>
       <c r="AI82" s="1"/>
     </row>
-    <row r="83" spans="3:35" x14ac:dyDescent="0.3">
+    <row r="83" spans="3:35" x14ac:dyDescent="0.2">
       <c r="C83"/>
       <c r="AI83" s="1"/>
     </row>
-    <row r="84" spans="3:35" x14ac:dyDescent="0.3">
+    <row r="84" spans="3:35" x14ac:dyDescent="0.2">
       <c r="C84"/>
       <c r="AI84" s="1"/>
     </row>
-    <row r="85" spans="3:35" x14ac:dyDescent="0.3">
+    <row r="85" spans="3:35" x14ac:dyDescent="0.2">
       <c r="C85"/>
       <c r="AI85" s="1"/>
     </row>
